--- a/input.example.xlsx
+++ b/input.example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos97gr/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos97gr/Development/personal/getvk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C8D759-6B6E-AF40-ACAA-AF2ED80CDFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053C0108-A8A5-6B4C-9469-DDD82BA72547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15900" xr2:uid="{D11D946A-82EC-5244-B452-32D9091D2C9F}"/>
   </bookViews>
@@ -36,27 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>vk.com/mariupolads</t>
+    <t>https://vk.com/tatiana_bayard</t>
   </si>
   <si>
-    <t>https://vk.com/avtorinokmariupol</t>
+    <t>https://vk.com/fae9fe</t>
   </si>
   <si>
-    <t>https://vk.com/deaf_communication</t>
+    <t>https://vk.com/gemology</t>
   </si>
   <si>
-    <t>https://vk.com/ekbloves</t>
-  </si>
-  <si>
-    <t>https://vk.com/ekbnaplotinke</t>
-  </si>
-  <si>
-    <t>https://vk.com/novostuekb</t>
+    <t>https://vk.com/jewels_of_nature</t>
   </si>
 </sst>
 </file>
@@ -408,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF86BD6-6E89-F94D-BCBE-DFFB232CC803}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,16 +435,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
